--- a/CV_proj/car_annotation/car_annotation时间安排.xlsx
+++ b/CV_proj/car_annotation/car_annotation时间安排.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yihaoli/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E52981C-E184-3245-B4E5-840A497837AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD647B99-82D6-9B4A-9E62-154791B4A83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14520" xr2:uid="{05C81F96-57A7-1A4C-A007-279B9D213B9C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -291,19 +291,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -320,33 +378,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,354 +748,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4233EAB-083F-734E-B452-851E98BA8656}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:16" ht="30" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="H1" s="8" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="H2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="2:16" ht="30" customHeight="1">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3">
+    <row r="4" spans="2:16" ht="30" customHeight="1">
+      <c r="B4" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4">
+      <c r="H4" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="2:16" ht="30" customHeight="1">
+      <c r="B5" s="10">
         <v>1.2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="A5">
+      <c r="H5" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" ht="30" customHeight="1">
+      <c r="B6" s="9">
         <v>2.1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1">
-      <c r="A6">
+      <c r="H6" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:16" ht="30" customHeight="1">
+      <c r="B7" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7">
+      <c r="H7" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:16" ht="30" customHeight="1">
+      <c r="B8" s="10">
         <v>3.1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8">
+      <c r="H8" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" ht="30" customHeight="1">
+      <c r="B9" s="9">
         <v>3.2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8">
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1">
-      <c r="A9">
+      <c r="H9" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" ht="30" customHeight="1">
+      <c r="B10" s="8">
         <v>3.3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1">
-      <c r="A10">
+      <c r="H10" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" ht="30" customHeight="1">
+      <c r="B11" s="10">
         <v>3.4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1">
-      <c r="A11">
+      <c r="H11" s="17">
+        <v>3.4</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" ht="30" customHeight="1">
+      <c r="B12" s="9">
         <v>3.5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1">
-      <c r="A12">
+      <c r="H12" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="2:16" ht="30" customHeight="1">
+      <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" customHeight="1">
-      <c r="A13">
+      <c r="F13" s="3"/>
+      <c r="H13" s="16">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" ht="30" customHeight="1">
+      <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="19">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
